--- a/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
+++ b/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\India EPS\InputData UPDATE FOR INDIA\elec\BPHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BPHC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE08A0-69FF-429F-B04B-9BB50EE36C6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="25875" windowHeight="12075"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BPHC" sheetId="3" r:id="rId2"/>
+    <sheet name="CEA" sheetId="4" r:id="rId2"/>
+    <sheet name="BPHC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>BPHC BAU Pumped Hydro Capacity</t>
   </si>
@@ -28,9 +38,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>http://www.cea.nic.in/reports/monthly/hydro/2018/pump_storage-01.pdf</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -41,13 +48,131 @@
   </si>
   <si>
     <t>Pumped Storage Development in India</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/monthly/hydro/2019/pump_storage-09.pdf</t>
+  </si>
+  <si>
+    <t>PUMPED STORAGE DEVELOPMENT IN INDIA</t>
+  </si>
+  <si>
+    <t>(Installed Capacity above 25 MW)</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>SCHEMES</t>
+  </si>
+  <si>
+    <t>Installed Capacity</t>
+  </si>
+  <si>
+    <t>no. of units 
+X unit size (MW)</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>A. Schemes Constructed</t>
+  </si>
+  <si>
+    <t>a) Working in pumping mode</t>
+  </si>
+  <si>
+    <t>Nagarjuna Sagar -Telangana</t>
+  </si>
+  <si>
+    <t>7x100.80</t>
+  </si>
+  <si>
+    <t>Kadamparai -T.N</t>
+  </si>
+  <si>
+    <t>4x100</t>
+  </si>
+  <si>
+    <t>Bhira -Mah.</t>
+  </si>
+  <si>
+    <t>1x150</t>
+  </si>
+  <si>
+    <t>Srisailam LBPH -Telangana</t>
+  </si>
+  <si>
+    <t>6x150</t>
+  </si>
+  <si>
+    <t>Purlia PSS -W.B.</t>
+  </si>
+  <si>
+    <t>4x225</t>
+  </si>
+  <si>
+    <t>Ghatgar -Mah.</t>
+  </si>
+  <si>
+    <t>2x125</t>
+  </si>
+  <si>
+    <t>A. Schemes under construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehri St.-II -Uttarakhand </t>
+  </si>
+  <si>
+    <t>4x250</t>
+  </si>
+  <si>
+    <t>Koyna Left Bank -Mah.</t>
+  </si>
+  <si>
+    <t>2x40</t>
+  </si>
+  <si>
+    <t>Kundah Pump Storage (Stage I,II,II&amp;IV)-T. N</t>
+  </si>
+  <si>
+    <t>4x 125</t>
+  </si>
+  <si>
+    <t>Likely commissioning by 2021-23 (June’22)</t>
+  </si>
+  <si>
+    <t>Likely commissioning by 2022-23</t>
+  </si>
+  <si>
+    <t>Only those schemes are considered which are:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) currently operational </t>
+  </si>
+  <si>
+    <t>b) undergoing repairs (with likely time of completion mentioned)</t>
+  </si>
+  <si>
+    <t>c) under construction (with likely commissioning years mentioned)</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Working tot.</t>
+  </si>
+  <si>
+    <t>As on 30.09.2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +216,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -144,6 +301,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -166,25 +347,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="3"/>
+    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Parent row" xfId="5"/>
-    <cellStyle name="Table title" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,6 +479,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -310,6 +531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,12 +723,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -507,27 +743,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
-        <v>2018</v>
+        <v>43709</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{A62CCBEA-3A71-48BE-9CB8-C8C01DA6423A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -535,14 +796,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639249E2-7860-42BC-A662-DB76B2A9C0D4}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="69.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8">
+        <v>705.6</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7">
+        <v>400</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7">
+        <v>150</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7">
+        <v>900</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7">
+        <v>900</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7">
+        <v>250</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7">
+        <f>SUM(D8:D13)</f>
+        <v>3305.6</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7">
+        <v>80</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7">
+        <v>500</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F17:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:AJ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -662,144 +1193,147 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>4785.6000000000004</v>
+        <f>D2</f>
+        <v>3305.6</v>
       </c>
       <c r="C2" s="3">
-        <v>4785.6000000000004</v>
+        <f>D2</f>
+        <v>3305.6</v>
       </c>
       <c r="D2" s="3">
-        <v>4785.6000000000004</v>
+        <f>CEA!D14</f>
+        <v>3305.6</v>
       </c>
       <c r="E2" s="3">
-        <f>D2+1080</f>
-        <v>5865.6</v>
+        <f>D2</f>
+        <v>3305.6</v>
       </c>
       <c r="F2" s="3">
         <f>E2</f>
-        <v>5865.6</v>
+        <v>3305.6</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:AJ2" si="0">F2</f>
-        <v>5865.6</v>
+        <v>3305.6</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <f>G2+CEA!D17</f>
+        <v>4305.6000000000004</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <f>H2+CEA!D18+CEA!D19</f>
+        <v>4885.6000000000004</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="O2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="R2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="S2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="T2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="U2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="V2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="W2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="X2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="Y2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="Z2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="AA2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="AB2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="AC2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="AD2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="AE2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="AF2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="AG2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="AH2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="AI2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="AJ2" s="3">
         <f t="shared" si="0"/>
-        <v>5865.6</v>
+        <v>4885.6000000000004</v>
       </c>
     </row>
   </sheetData>
